--- a/forms/contact/household_member-create.xlsx
+++ b/forms/contact/household_member-create.xlsx
@@ -540,7 +540,7 @@
     <t xml:space="preserve">New Household Member</t>
   </si>
   <si>
-    <t xml:space="preserve">household_member_create</t>
+    <t xml:space="preserve">contact:household_member:create</t>
   </si>
   <si>
     <t xml:space="preserve">pages</t>
@@ -30145,7 +30145,7 @@
       <selection pane="topLeft" activeCell="B15" activeCellId="0" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.49609375" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="22.43"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="10"/>
@@ -31610,7 +31610,7 @@
   <dimension ref="A1:Z1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B3" activeCellId="0" sqref="B3"/>
+      <selection pane="topLeft" activeCell="B2" activeCellId="0" sqref="B2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="17.29296875" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
@@ -31672,7 +31672,7 @@
       </c>
       <c r="C2" s="25" t="str">
         <f aca="true">TEXT(NOW(), "yyyy-mm-dd_HH-MM")</f>
-        <v>2024-09-03  13-20</v>
+        <v>2024-09-22  11-35</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>173</v>
